--- a/biology/Médecine/Centre_d'investigation_clinique_Cochin-Pasteur/Centre_d'investigation_clinique_Cochin-Pasteur.xlsx
+++ b/biology/Médecine/Centre_d'investigation_clinique_Cochin-Pasteur/Centre_d'investigation_clinique_Cochin-Pasteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_d%27investigation_clinique_Cochin-Pasteur</t>
+          <t>Centre_d'investigation_clinique_Cochin-Pasteur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre d'investigation clinique en vaccinologie Cochin-Pasteur (CIC 1417) est un laboratoire de recherche d'Université Paris-Cité et de l'Inserm, situé sur le site de l'hôpital Cochin à Paris. Fondé en 2005 sous le nom de Centre d’Essais Vaccinaux, il est le seul centre d'investigation clinique français dédié exclusivement au vaccin.
-C'est une centre d'investigation clinique d'Université Paris-Cité, l'Inserm, de l'Institut Pasteur et du groupe hospitalo-universitaire AP-HP centre université de Paris[2],[3].
+C'est une centre d'investigation clinique d'Université Paris-Cité, l'Inserm, de l'Institut Pasteur et du groupe hospitalo-universitaire AP-HP centre université de Paris,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_d%27investigation_clinique_Cochin-Pasteur</t>
+          <t>Centre_d'investigation_clinique_Cochin-Pasteur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fondé et labellisé par l'Inserm en 2005 sous le nom de Centre d'essais vaccinaux de l'hôpital Cochin, le CIC 1417 Cochin-Pasteur est créé le 17 mars 2006 par l'Institut Pasteur, l'hôpital Cochin et l'Inserm[4]. Il a été évalué et renouvelé en 2013 par l’AERES[5].
-Le 18 décembre 2020, Ose Immunotherapeutics, une société nantaise de biotechnologie, annonce avoir « obtenu un financement de 5,2 millions d’euros de l’État par le biais de Bpifrance »[6], pour son programme de développement de CoVepiT, « son vaccin multi-cibles de deuxième génération contre le Covid-19. […] Un essai clinique de phase I-II, donc sur un petit nombre de patients, doit démarrer début 2021 » en partenariat avec l’hôpital européen Georges-Pompidou et le Centre d’investigation clinique Cochin-Pasteur d'Université Paris-Cité et de l'Inserm[7],[8].
-Identité visuelle (logo)
-			Logo
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondé et labellisé par l'Inserm en 2005 sous le nom de Centre d'essais vaccinaux de l'hôpital Cochin, le CIC 1417 Cochin-Pasteur est créé le 17 mars 2006 par l'Institut Pasteur, l'hôpital Cochin et l'Inserm. Il a été évalué et renouvelé en 2013 par l’AERES.
+Le 18 décembre 2020, Ose Immunotherapeutics, une société nantaise de biotechnologie, annonce avoir « obtenu un financement de 5,2 millions d’euros de l’État par le biais de Bpifrance », pour son programme de développement de CoVepiT, « son vaccin multi-cibles de deuxième génération contre le Covid-19. […] Un essai clinique de phase I-II, donc sur un petit nombre de patients, doit démarrer début 2021 » en partenariat avec l’hôpital européen Georges-Pompidou et le Centre d’investigation clinique Cochin-Pasteur d'Université Paris-Cité et de l'Inserm,.
 </t>
         </is>
       </c>
@@ -528,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_d%27investigation_clinique_Cochin-Pasteur</t>
+          <t>Centre_d'investigation_clinique_Cochin-Pasteur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +555,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Champs de recherches</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Identité visuelle (logo)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Logo
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Centre_d%27investigation_clinique_Cochin-Pasteur</t>
+          <t>Centre_d'investigation_clinique_Cochin-Pasteur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,10 +593,40 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Champs de recherches</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre_d'investigation_clinique_Cochin-Pasteur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_d%27investigation_clinique_Cochin-Pasteur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Accès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est accessible par la ligne 6 à la station Saint-Jacques et par la ligne B du RER à la gare de Port-Royal.
 </t>
